--- a/£TRLS.xlsx
+++ b/£TRLS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C725CF27-8B3F-624D-9939-8D545840B28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A8F58C-465F-4480-932E-2C7325210FDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="33600" windowHeight="18920" xr2:uid="{22FE4D90-709B-430A-8239-4013C6F51091}"/>
+    <workbookView xWindow="-15" yWindow="495" windowWidth="33600" windowHeight="18915" xr2:uid="{22FE4D90-709B-430A-8239-4013C6F51091}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -617,8 +607,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -745,6 +733,20 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -754,6 +756,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -768,32 +772,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1184,645 +1174,639 @@
   <dimension ref="A2:AB35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+      <selection activeCell="O23" sqref="N23:O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="9.1640625" style="1"/>
-    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="B5" s="79" t="s">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B5" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="81"/>
-      <c r="G5" s="79" t="s">
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="G5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="81"/>
-      <c r="T5" s="79" t="s">
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="85"/>
+      <c r="T5" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="81"/>
-      <c r="Z5" s="79" t="s">
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="85"/>
+      <c r="Z5" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="81"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="85"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5">
-        <v>0.1118</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="G6" s="20">
+        <v>0.13519999999999999</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="G6" s="18">
         <v>44838</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="16"/>
-      <c r="T6" s="38" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="14"/>
+      <c r="T6" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="16"/>
-      <c r="Z6" s="76">
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="14"/>
+      <c r="Z6" s="74">
         <v>44835</v>
       </c>
-      <c r="AA6" s="82" t="s">
+      <c r="AA6" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="AB6" s="83"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AB6" s="89"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="5">
         <v>131.69999999999999</v>
       </c>
-      <c r="D7" s="75" t="str">
+      <c r="D7" s="73" t="str">
         <f>C$28</f>
         <v>FY21</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="16"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="16"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="85"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="14"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="14"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="91"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <f>C6*C7</f>
-        <v>14.724059999999998</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22" t="s">
+        <v>17.805839999999996</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="16"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="16"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="14"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="14"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <f>'Financial Model'!P49*C13/1000</f>
         <v>28.144159999999999</v>
       </c>
-      <c r="D9" s="75" t="str">
+      <c r="D9" s="73" t="str">
         <f t="shared" ref="D9:D11" si="0">C$28</f>
         <v>FY21</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="16"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="16"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="G9" s="19"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="14"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="14"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>0</v>
       </c>
-      <c r="D10" s="75" t="str">
+      <c r="D10" s="73" t="str">
         <f t="shared" si="0"/>
         <v>FY21</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="16"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="16"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="G10" s="19"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="14"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="14"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <f>C9-C10</f>
         <v>28.144159999999999</v>
       </c>
-      <c r="D11" s="75" t="str">
+      <c r="D11" s="73" t="str">
         <f t="shared" si="0"/>
         <v>FY21</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="16"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="16"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="G11" s="19"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="14"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="14"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <f>C8-C11</f>
-        <v>-13.420100000000001</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="16"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="16"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="B13" s="73" t="s">
+        <v>-10.338320000000003</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="14"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="14"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B13" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="69">
         <v>0.88</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="G13" s="21" t="s">
+      <c r="D13" s="70"/>
+      <c r="G13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="16"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="16"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="G14" s="21"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="16"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="19"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="B15" s="79" t="s">
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="14"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="14"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="G14" s="19"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="14"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="17"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B15" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
-      <c r="G15" s="20">
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="G15" s="18">
         <v>44344</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="16"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A16" s="24" t="s">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="14"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="16"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A17" s="24"/>
-      <c r="B17" s="14" t="s">
+      <c r="D16" s="82"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="14"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="22"/>
+      <c r="B17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="91"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="16"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A18" s="24" t="s">
+      <c r="D17" s="82"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="14"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="91"/>
+      <c r="D18" s="82"/>
       <c r="E18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="16"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B19" s="17" t="s">
+      <c r="G18" s="19"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="14"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="89"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="16"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="G20" s="21"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="16"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="G21" s="21"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="16"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B22" s="79" t="s">
+      <c r="D19" s="97"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="14"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G20" s="19"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="14"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G21" s="19"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="14"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="81"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="16"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B23" s="21" t="s">
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="14"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="91"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="16"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B24" s="21" t="s">
+      <c r="D23" s="82"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="14"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B24" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="90">
+      <c r="C24" s="81">
         <v>2020</v>
       </c>
-      <c r="D24" s="91"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="16"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B25" s="21"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="16"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B26" s="21"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="16"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B27" s="21"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="8"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B28" s="21" t="s">
+      <c r="D24" s="82"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="14"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="19"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="93"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="14"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="19"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="93"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="14"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="19"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="93"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="80"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B28" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="25"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B29" s="23" t="s">
+      <c r="D28" s="23"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B29" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="85"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B32" s="79" t="s">
+      <c r="D29" s="91"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B32" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B33" s="21" t="s">
+      <c r="C32" s="84"/>
+      <c r="D32" s="85"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="94">
         <f>C6/'Financial Model'!P45</f>
-        <v>0.41741962918863756</v>
+        <v>0.50478652832114301</v>
       </c>
       <c r="D33" s="95"/>
-      <c r="G33" s="36"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="21" t="s">
+      <c r="G33" s="34"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="86"/>
-      <c r="D34" s="87"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B35" s="23" t="s">
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="96"/>
-      <c r="D35" s="97"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G5:R5"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="Z5:AB5"/>
     <mergeCell ref="AA6:AB6"/>
@@ -1839,6 +1823,12 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G5:R5"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{03F0450A-3559-4A6F-9878-BC2701BC0DAB}"/>
@@ -1859,628 +1849,628 @@
       <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="61"/>
-    <col min="4" max="4" width="9.1640625" style="29"/>
-    <col min="5" max="5" width="9.1640625" style="1"/>
-    <col min="6" max="6" width="9.1640625" style="29"/>
-    <col min="7" max="7" width="9.1640625" style="1"/>
-    <col min="8" max="8" width="9.1640625" style="29"/>
-    <col min="9" max="14" width="9.1640625" style="1"/>
-    <col min="15" max="15" width="9.1640625" style="61"/>
-    <col min="16" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="59"/>
+    <col min="4" max="4" width="9.140625" style="27"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="27"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="27"/>
+    <col min="9" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.140625" style="59"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="52" t="s">
+    <row r="1" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="O1" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="30"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="92">
+    <row r="2" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="28"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="77">
         <v>44561</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="O2" s="54">
+      <c r="F2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="O2" s="52">
         <v>44196</v>
       </c>
-      <c r="P2" s="40">
+      <c r="P2" s="38">
         <v>44561</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="30"/>
-      <c r="C3" s="64">
+    <row r="3" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="28"/>
+      <c r="C3" s="62">
         <v>44461</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="93">
+      <c r="D3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="78">
         <v>44692</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="37" t="s">
+    <row r="4" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="O4" s="56">
+      <c r="C4" s="54"/>
+      <c r="D4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="O4" s="54">
         <v>0</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="35">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="36" t="s">
+    <row r="5" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="O5" s="57">
+      <c r="C5" s="55"/>
+      <c r="D5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="O5" s="55">
         <v>0</v>
       </c>
-      <c r="P5" s="36">
+      <c r="P5" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="37" t="s">
+    <row r="6" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="O6" s="56">
+      <c r="C6" s="54"/>
+      <c r="D6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="O6" s="54">
         <f>O4-O5</f>
         <v>0</v>
       </c>
-      <c r="P6" s="37">
+      <c r="P6" s="35">
         <f>P4-P5</f>
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="36" t="s">
+    <row r="7" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="O7" s="57">
+      <c r="C7" s="55"/>
+      <c r="D7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="O7" s="55">
         <v>762</v>
       </c>
-      <c r="P7" s="36">
+      <c r="P7" s="34">
         <v>5927</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="37" t="s">
+    <row r="8" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="O8" s="56">
+      <c r="C8" s="54"/>
+      <c r="D8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="O8" s="54">
         <f>O6-O7</f>
         <v>-762</v>
       </c>
-      <c r="P8" s="37">
+      <c r="P8" s="35">
         <f>P6-P7</f>
         <v>-5902</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44" t="s">
+    <row r="9" spans="1:19" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="O9" s="58">
+      <c r="C9" s="56"/>
+      <c r="D9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="O9" s="56">
         <v>1</v>
       </c>
-      <c r="P9" s="44">
+      <c r="P9" s="42">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47" t="s">
+    <row r="10" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="44"/>
+      <c r="B10" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="O10" s="59">
+      <c r="C10" s="57"/>
+      <c r="D10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="O10" s="57">
         <v>0</v>
       </c>
-      <c r="P10" s="47">
+      <c r="P10" s="45">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50" t="s">
+    <row r="11" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="47"/>
+      <c r="B11" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="O11" s="60">
+      <c r="C11" s="58"/>
+      <c r="D11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="O11" s="58">
         <f>O8+O9+O10</f>
         <v>-761</v>
       </c>
-      <c r="P11" s="50">
+      <c r="P11" s="48">
         <f>P8+P9+P10</f>
         <v>-5731</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="36" t="s">
+    <row r="12" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="O12" s="57">
+      <c r="C12" s="55"/>
+      <c r="D12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="O12" s="55">
         <v>0</v>
       </c>
-      <c r="P12" s="36">
+      <c r="P12" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="36" t="s">
+    <row r="13" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="O13" s="57">
+      <c r="C13" s="55"/>
+      <c r="D13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="O13" s="55">
         <v>0</v>
       </c>
-      <c r="P13" s="36">
+      <c r="P13" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="36" t="s">
+    <row r="14" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="O14" s="57">
+      <c r="C14" s="55"/>
+      <c r="D14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="O14" s="55">
         <f>O8+O12-O13</f>
         <v>-762</v>
       </c>
-      <c r="P14" s="36">
+      <c r="P14" s="34">
         <f>P8+P12-P13</f>
         <v>-5902</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="O15" s="57">
+      <c r="C15" s="55"/>
+      <c r="D15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="O15" s="55">
         <v>0</v>
       </c>
-      <c r="P15" s="36">
+      <c r="P15" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="37" t="s">
+    <row r="16" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="O16" s="56">
+      <c r="C16" s="54"/>
+      <c r="D16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="O16" s="54">
         <f>O14-O15</f>
         <v>-762</v>
       </c>
-      <c r="P16" s="37">
+      <c r="P16" s="35">
         <f>P14-P15</f>
         <v>-5902</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O17" s="68">
+      <c r="O17" s="66">
         <f>O16/O18</f>
         <v>-9.067596432460091E-3</v>
       </c>
-      <c r="P17" s="69">
+      <c r="P17" s="67">
         <f>P16/P18</f>
         <v>-4.481397114654518E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="67">
+      <c r="O18" s="65">
         <v>84035.5</v>
       </c>
-      <c r="P18" s="35">
+      <c r="P18" s="33">
         <v>131700</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="77"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C20" s="60"/>
+      <c r="D20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="75"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O23" s="66" t="s">
+      <c r="O23" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="P23" s="65">
+      <c r="P23" s="63">
         <f>P6/P4</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O24" s="66" t="s">
+      <c r="O24" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="P24" s="65">
+      <c r="P24" s="63">
         <f>P8/P4</f>
         <v>-236.08</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O25" s="66" t="s">
+      <c r="O25" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="P25" s="65">
+      <c r="P25" s="63">
         <f>P16/P4</f>
         <v>-236.08</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="66" t="s">
+      <c r="O26" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="P26" s="65">
+      <c r="P26" s="63">
         <f>P15/P14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B29" s="33" t="s">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O29" s="57"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="O29" s="55"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="57">
+      <c r="C30" s="55">
         <v>32</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="40">
         <f>P30</f>
         <v>82</v>
       </c>
-      <c r="O30" s="57">
+      <c r="O30" s="55">
         <v>11</v>
       </c>
-      <c r="P30" s="36">
+      <c r="P30" s="34">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="55">
         <v>2214</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="40">
         <f t="shared" ref="D31:D42" si="0">P31</f>
         <v>4280</v>
       </c>
-      <c r="O31" s="57">
+      <c r="O31" s="55">
         <v>662</v>
       </c>
-      <c r="P31" s="36">
+      <c r="P31" s="34">
         <v>4280</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C32" s="55">
         <v>0</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O32" s="57">
+      <c r="O32" s="55">
         <v>0</v>
       </c>
-      <c r="P32" s="36">
+      <c r="P32" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="57">
+      <c r="C33" s="55">
         <f>C30+C31+C32</f>
         <v>2246</v>
       </c>
-      <c r="D33" s="42">
+      <c r="D33" s="40">
         <f t="shared" si="0"/>
         <v>4362</v>
       </c>
-      <c r="O33" s="57">
+      <c r="O33" s="55">
         <f>O30+O31+O32</f>
         <v>673</v>
       </c>
-      <c r="P33" s="36">
+      <c r="P33" s="34">
         <f>P30+P31+P32</f>
         <v>4362</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="57">
+      <c r="C34" s="55">
         <v>319</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="40">
         <f t="shared" si="0"/>
         <v>451</v>
       </c>
-      <c r="O34" s="57">
+      <c r="O34" s="55">
         <v>11</v>
       </c>
-      <c r="P34" s="36">
+      <c r="P34" s="34">
         <v>451</v>
       </c>
     </row>
-    <row r="35" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C35" s="54">
         <v>39691</v>
       </c>
-      <c r="D35" s="41">
+      <c r="D35" s="39">
         <f t="shared" si="0"/>
         <v>31982</v>
       </c>
-      <c r="F35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="O35" s="56">
+      <c r="F35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="O35" s="54">
         <v>3684</v>
       </c>
-      <c r="P35" s="37">
+      <c r="P35" s="35">
         <v>31982</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="57">
+      <c r="C36" s="55">
         <f>C33+SUM(C34:C35)</f>
         <v>42256</v>
       </c>
-      <c r="D36" s="42">
+      <c r="D36" s="40">
         <f t="shared" si="0"/>
         <v>36795</v>
       </c>
-      <c r="O36" s="57">
+      <c r="O36" s="55">
         <f>O33+SUM(O34:O35)</f>
         <v>4368</v>
       </c>
-      <c r="P36" s="70">
+      <c r="P36" s="68">
         <f>P33+SUM(P34:P35)</f>
         <v>36795</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="C37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="36"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="34"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="57">
+      <c r="C38" s="55">
         <v>1032</v>
       </c>
-      <c r="D38" s="42">
+      <c r="D38" s="40">
         <f t="shared" si="0"/>
         <v>1521</v>
       </c>
-      <c r="O38" s="57">
+      <c r="O38" s="55">
         <v>122</v>
       </c>
-      <c r="P38" s="36">
+      <c r="P38" s="34">
         <v>1521</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="57">
+      <c r="C39" s="55">
         <f>C38</f>
         <v>1032</v>
       </c>
-      <c r="D39" s="42">
+      <c r="D39" s="40">
         <f t="shared" si="0"/>
         <v>1521</v>
       </c>
-      <c r="O39" s="57">
+      <c r="O39" s="55">
         <f>O38</f>
         <v>122</v>
       </c>
-      <c r="P39" s="70">
+      <c r="P39" s="68">
         <f>P38</f>
         <v>1521</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="O40" s="57"/>
-      <c r="P40" s="36"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O40" s="55"/>
+      <c r="P40" s="34"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="57">
+      <c r="C41" s="55">
         <v>41224</v>
       </c>
-      <c r="D41" s="42">
+      <c r="D41" s="40">
         <f t="shared" si="0"/>
         <v>35274</v>
       </c>
-      <c r="O41" s="57">
+      <c r="O41" s="55">
         <v>4246</v>
       </c>
-      <c r="P41" s="36">
+      <c r="P41" s="34">
         <v>35274</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="57">
+      <c r="C42" s="55">
         <f>C41+C39</f>
         <v>42256</v>
       </c>
-      <c r="D42" s="42">
+      <c r="D42" s="40">
         <f t="shared" si="0"/>
         <v>36795</v>
       </c>
-      <c r="O42" s="57">
+      <c r="O42" s="55">
         <f>O41+O39</f>
         <v>4368</v>
       </c>
-      <c r="P42" s="36">
+      <c r="P42" s="34">
         <f>P41+P39</f>
         <v>36795</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O44" s="57">
+      <c r="O44" s="55">
         <f>O36-O39</f>
         <v>4246</v>
       </c>
-      <c r="P44" s="36">
+      <c r="P44" s="34">
         <f>P36-P39</f>
         <v>35274</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O45" s="61">
+      <c r="O45" s="59">
         <f>O44/O18</f>
         <v>5.0526265685335366E-2</v>
       </c>
@@ -2489,95 +2479,95 @@
         <v>0.26783599088838267</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="57">
+      <c r="C47" s="55">
         <f>C35</f>
         <v>39691</v>
       </c>
-      <c r="D47" s="42">
+      <c r="D47" s="40">
         <f>D35</f>
         <v>31982</v>
       </c>
-      <c r="O47" s="57">
+      <c r="O47" s="55">
         <f>O35</f>
         <v>3684</v>
       </c>
-      <c r="P47" s="36">
+      <c r="P47" s="34">
         <f>P35</f>
         <v>31982</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="61">
+      <c r="C48" s="59">
         <v>0</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="27">
         <v>0</v>
       </c>
-      <c r="O48" s="61">
+      <c r="O48" s="59">
         <v>0</v>
       </c>
       <c r="P48" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="57">
+      <c r="C49" s="55">
         <f>C47-C48</f>
         <v>39691</v>
       </c>
-      <c r="D49" s="42">
+      <c r="D49" s="40">
         <f>D47-D48</f>
         <v>31982</v>
       </c>
-      <c r="O49" s="57">
+      <c r="O49" s="55">
         <f>O47-O48</f>
         <v>3684</v>
       </c>
-      <c r="P49" s="36">
+      <c r="P49" s="34">
         <f>P47-P48</f>
         <v>31982</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="78" t="s">
+      <c r="D51" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="P51" s="65">
+      <c r="P51" s="63">
         <f>P49/O49-1</f>
         <v>7.6813246471226932</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="29">
+      <c r="D52" s="27">
         <f>D49/C49-1</f>
         <v>-0.19422539114660753</v>
       </c>
-      <c r="O52" s="66" t="s">
+      <c r="O52" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="P52" s="24" t="s">
+      <c r="P52" s="22" t="s">
         <v>83</v>
       </c>
     </row>

--- a/£TRLS.xlsx
+++ b/£TRLS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A8F58C-465F-4480-932E-2C7325210FDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1360184-4780-42D6-844F-8F35646C8640}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="495" windowWidth="33600" windowHeight="18915" xr2:uid="{22FE4D90-709B-430A-8239-4013C6F51091}"/>
+    <workbookView xWindow="-15" yWindow="495" windowWidth="33600" windowHeight="18915" activeTab="1" xr2:uid="{22FE4D90-709B-430A-8239-4013C6F51091}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
   <si>
     <t>£TRLS</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>Book Value per Share</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
   </si>
 </sst>
 </file>
@@ -741,12 +744,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -756,8 +755,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -782,6 +779,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1173,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C1C77C-EAEA-4E8C-99BB-50215075D6D1}">
   <dimension ref="A2:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="N23:O23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1265,10 +1268,10 @@
       <c r="Z6" s="74">
         <v>44835</v>
       </c>
-      <c r="AA6" s="88" t="s">
+      <c r="AA6" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="AB6" s="89"/>
+      <c r="AB6" s="87"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
@@ -1301,8 +1304,8 @@
       <c r="W7" s="13"/>
       <c r="X7" s="14"/>
       <c r="Z7" s="24"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="91"/>
+      <c r="AA7" s="88"/>
+      <c r="AB7" s="89"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
@@ -1528,10 +1531,10 @@
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="82"/>
+      <c r="D16" s="97"/>
       <c r="G16" s="19"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -1550,10 +1553,10 @@
       <c r="B17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="82"/>
+      <c r="D17" s="97"/>
       <c r="G17" s="19"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -1574,10 +1577,10 @@
       <c r="B18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="82"/>
+      <c r="D18" s="97"/>
       <c r="E18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1598,10 +1601,10 @@
       <c r="B19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="97"/>
+      <c r="D19" s="95"/>
       <c r="G19" s="19"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -1666,10 +1669,10 @@
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="82"/>
+      <c r="D23" s="97"/>
       <c r="G23" s="19"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
@@ -1687,10 +1690,10 @@
       <c r="B24" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="81">
+      <c r="C24" s="96">
         <v>2020</v>
       </c>
-      <c r="D24" s="82"/>
+      <c r="D24" s="97"/>
       <c r="G24" s="19"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -1706,8 +1709,8 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B25" s="19"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="93"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="91"/>
       <c r="G25" s="19"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -1723,8 +1726,8 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B26" s="19"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="93"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="91"/>
       <c r="G26" s="19"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
@@ -1740,8 +1743,8 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B27" s="19"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="93"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91"/>
       <c r="G27" s="21"/>
       <c r="H27" s="79"/>
       <c r="I27" s="79"/>
@@ -1768,10 +1771,10 @@
       <c r="B29" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="90" t="s">
+      <c r="C29" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="91"/>
+      <c r="D29" s="89"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B32" s="83" t="s">
@@ -1784,29 +1787,35 @@
       <c r="B33" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="94">
+      <c r="C33" s="92">
         <f>C6/'Financial Model'!P45</f>
         <v>0.50478652832114301</v>
       </c>
-      <c r="D33" s="95"/>
+      <c r="D33" s="93"/>
       <c r="G33" s="34"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="91"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="86"/>
-      <c r="D35" s="87"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G5:R5"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="Z5:AB5"/>
     <mergeCell ref="AA6:AB6"/>
@@ -1823,12 +1832,6 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G5:R5"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{03F0450A-3559-4A6F-9878-BC2701BC0DAB}"/>
@@ -1842,11 +1845,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6058E4-89C2-43CA-BCF6-B720BB1CDD37}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2216,14 +2219,14 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="O26" s="64" t="s">
         <v>83</v>
       </c>
       <c r="P26" s="63">
-        <f>P15/P14</f>
-        <v>0</v>
+        <f>P17/P16</f>
+        <v>7.5930144267274111E-6</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">

--- a/£TRLS.xlsx
+++ b/£TRLS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1360184-4780-42D6-844F-8F35646C8640}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305A460A-22C4-5D41-AF40-6F1C08DC3967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="495" windowWidth="33600" windowHeight="18915" activeTab="1" xr2:uid="{22FE4D90-709B-430A-8239-4013C6F51091}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18920" xr2:uid="{22FE4D90-709B-430A-8239-4013C6F51091}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
   <si>
     <t>£TRLS</t>
   </si>
@@ -322,6 +332,12 @@
   </si>
   <si>
     <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Non-Exec Chair Julian Baines steps down due to EKF appointment. Dr. Daniel Mahoney becomes new Non-Exec Chairman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahoney is an Oxford biochemistry graduate who took a Ph.D in Cambridge and has 25years of industry experience </t>
   </si>
 </sst>
 </file>
@@ -602,13 +618,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -616,7 +631,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -624,7 +639,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -637,7 +652,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -646,7 +661,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -668,7 +682,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -682,8 +695,8 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -702,7 +715,7 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -719,11 +732,10 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -742,19 +754,23 @@
     <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -767,9 +783,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -781,11 +797,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1176,646 +1192,649 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C1C77C-EAEA-4E8C-99BB-50215075D6D1}">
   <dimension ref="A2:AB35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23:O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="6" width="9.1640625" style="1"/>
+    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>37</v>
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B5" s="83" t="s">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B5" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
-      <c r="G5" s="83" t="s">
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="G5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="85"/>
-      <c r="T5" s="83" t="s">
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="79"/>
+      <c r="T5" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="85"/>
-      <c r="Z5" s="83" t="s">
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="79"/>
+      <c r="Z5" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="85"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="79"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5">
-        <v>0.13519999999999999</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="G6" s="18">
-        <v>44838</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="14"/>
-      <c r="T6" s="36" t="s">
+      <c r="C6" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="G6" s="92">
+        <v>44958</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="13"/>
+      <c r="T6" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="14"/>
-      <c r="Z6" s="74">
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="13"/>
+      <c r="Z6" s="70">
         <v>44835</v>
       </c>
-      <c r="AA6" s="86" t="s">
+      <c r="AA6" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="AB6" s="87"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB6" s="83"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="1">
         <v>131.69999999999999</v>
       </c>
-      <c r="D7" s="73" t="str">
+      <c r="D7" s="69" t="str">
         <f>C$28</f>
         <v>FY21</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="14"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="14"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="88"/>
-      <c r="AB7" s="89"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="G7" s="18"/>
+      <c r="H7" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="13"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="13"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="85"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <f>C6*C7</f>
-        <v>17.805839999999996</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="14"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="14"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11.852999999999998</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="13"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="13"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <f>'Financial Model'!P49*C13/1000</f>
         <v>28.144159999999999</v>
       </c>
-      <c r="D9" s="73" t="str">
+      <c r="D9" s="69" t="str">
         <f t="shared" ref="D9:D11" si="0">C$28</f>
         <v>FY21</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="14"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="14"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="G9" s="17">
+        <v>44838</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="13"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="13"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>0</v>
       </c>
-      <c r="D10" s="73" t="str">
+      <c r="D10" s="69" t="str">
         <f t="shared" si="0"/>
         <v>FY21</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="14"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="14"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="G10" s="18"/>
+      <c r="H10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="13"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="13"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <f>C9-C10</f>
         <v>28.144159999999999</v>
       </c>
-      <c r="D11" s="73" t="str">
+      <c r="D11" s="69" t="str">
         <f t="shared" si="0"/>
         <v>FY21</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="14"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="14"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
+      <c r="G11" s="18"/>
+      <c r="H11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="13"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="13"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <f>C8-C11</f>
-        <v>-10.338320000000003</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="14"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="14"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B13" s="71" t="s">
+        <v>-16.291160000000001</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="13"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="13"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B13" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="69">
+      <c r="C13" s="65">
         <v>0.88</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="G13" s="19" t="s">
+      <c r="D13" s="66"/>
+      <c r="G13" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="14"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="14"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="G14" s="19"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="14"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="17"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="83" t="s">
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="13"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="13"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="G14" s="18"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="13"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="16"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B15" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
-      <c r="G15" s="18">
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
+      <c r="G15" s="17">
         <v>44344</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="14"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="13"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A16" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="96" t="s">
+      <c r="C16" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="14"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="12" t="s">
+      <c r="D16" s="76"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="13"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="97"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="14"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="D17" s="76"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="13"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="96" t="s">
+      <c r="C18" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="97"/>
+      <c r="D18" s="76"/>
       <c r="E18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="14"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="15" t="s">
+      <c r="G18" s="18"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="13"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B19" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="95"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="14"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G20" s="19"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="14"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G21" s="19"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="14"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="83" t="s">
+      <c r="D19" s="91"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="13"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="G20" s="18"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="13"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="G21" s="18"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="13"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B22" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="14"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="19" t="s">
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="13"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="96" t="s">
+      <c r="C23" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="97"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="14"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="19" t="s">
+      <c r="D23" s="76"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="13"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="96">
+      <c r="C24" s="75">
         <v>2020</v>
       </c>
-      <c r="D24" s="97"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="14"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="19"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="91"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="14"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="19"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="91"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="14"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="19"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="91"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="80"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="19" t="s">
+      <c r="D24" s="76"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="13"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B25" s="18"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="13"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B26" s="18"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="13"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B27" s="18"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="16"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="23"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="21" t="s">
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B29" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="88" t="s">
+      <c r="C29" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="89"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="83" t="s">
+      <c r="D29" s="85"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B32" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="84"/>
-      <c r="D32" s="85"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="19" t="s">
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="92">
+      <c r="C33" s="88">
         <f>C6/'Financial Model'!P45</f>
-        <v>0.50478652832114301</v>
-      </c>
-      <c r="D33" s="93"/>
-      <c r="G33" s="34"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="19" t="s">
+        <v>0.33602653512502129</v>
+      </c>
+      <c r="D33" s="89"/>
+      <c r="G33" s="31"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="91"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="21" t="s">
+      <c r="C34" s="88">
+        <f>C8/'Financial Model'!P4</f>
+        <v>0.47411999999999993</v>
+      </c>
+      <c r="D34" s="89"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="82"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G5:R5"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="Z5:AB5"/>
     <mergeCell ref="AA6:AB6"/>
@@ -1832,6 +1851,12 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G5:R5"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{03F0450A-3559-4A6F-9878-BC2701BC0DAB}"/>
@@ -1845,635 +1870,635 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6058E4-89C2-43CA-BCF6-B720BB1CDD37}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="59"/>
-    <col min="4" max="4" width="9.140625" style="27"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.140625" style="27"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.140625" style="27"/>
-    <col min="9" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="9.140625" style="59"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="56"/>
+    <col min="4" max="4" width="9.1640625" style="25"/>
+    <col min="5" max="5" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="9.1640625" style="25"/>
+    <col min="7" max="7" width="9.1640625" style="1"/>
+    <col min="8" max="8" width="9.1640625" style="25"/>
+    <col min="9" max="14" width="9.1640625" style="1"/>
+    <col min="15" max="15" width="9.1640625" style="56"/>
+    <col min="16" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="50" t="s">
+    <row r="1" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="28"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="77">
+    <row r="2" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="26"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="73">
         <v>44561</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="O2" s="52">
+      <c r="F2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="O2" s="49">
         <v>44196</v>
       </c>
-      <c r="P2" s="38">
+      <c r="P2" s="35">
         <v>44561</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="28"/>
-      <c r="C3" s="62">
+    <row r="3" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="26"/>
+      <c r="C3" s="59">
         <v>44461</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="78">
+      <c r="D3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="74">
         <v>44692</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="35" t="s">
+    <row r="4" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="O4" s="54">
+      <c r="C4" s="51"/>
+      <c r="D4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="O4" s="51">
         <v>0</v>
       </c>
-      <c r="P4" s="35">
+      <c r="P4" s="32">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="34" t="s">
+    <row r="5" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="O5" s="55">
+      <c r="C5" s="52"/>
+      <c r="D5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="O5" s="52">
         <v>0</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="35" t="s">
+    <row r="6" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="O6" s="54">
+      <c r="C6" s="51"/>
+      <c r="D6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="O6" s="51">
         <f>O4-O5</f>
         <v>0</v>
       </c>
-      <c r="P6" s="35">
+      <c r="P6" s="32">
         <f>P4-P5</f>
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="34" t="s">
+    <row r="7" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="O7" s="55">
+      <c r="C7" s="52"/>
+      <c r="D7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="O7" s="52">
         <v>762</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="31">
         <v>5927</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="35" t="s">
+    <row r="8" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="O8" s="54">
+      <c r="C8" s="51"/>
+      <c r="D8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="O8" s="51">
         <f>O6-O7</f>
         <v>-762</v>
       </c>
-      <c r="P8" s="35">
+      <c r="P8" s="32">
         <f>P6-P7</f>
         <v>-5902</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42" t="s">
+    <row r="9" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="38"/>
+      <c r="B9" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="O9" s="56">
+      <c r="C9" s="53"/>
+      <c r="D9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="O9" s="53">
         <v>1</v>
       </c>
-      <c r="P9" s="42">
+      <c r="P9" s="39">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45" t="s">
+    <row r="10" spans="1:19" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="41"/>
+      <c r="B10" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="O10" s="57">
+      <c r="C10" s="54"/>
+      <c r="D10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="O10" s="54">
         <v>0</v>
       </c>
-      <c r="P10" s="45">
+      <c r="P10" s="42">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48" t="s">
+    <row r="11" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="44"/>
+      <c r="B11" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="O11" s="58">
+      <c r="C11" s="55"/>
+      <c r="D11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="O11" s="55">
         <f>O8+O9+O10</f>
         <v>-761</v>
       </c>
-      <c r="P11" s="48">
+      <c r="P11" s="45">
         <f>P8+P9+P10</f>
         <v>-5731</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="34" t="s">
+    <row r="12" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="O12" s="55">
+      <c r="C12" s="52"/>
+      <c r="D12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="O12" s="52">
         <v>0</v>
       </c>
-      <c r="P12" s="34">
+      <c r="P12" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="34" t="s">
+    <row r="13" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="O13" s="55">
+      <c r="C13" s="52"/>
+      <c r="D13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="O13" s="52">
         <v>0</v>
       </c>
-      <c r="P13" s="34">
+      <c r="P13" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="34" t="s">
+    <row r="14" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="O14" s="55">
+      <c r="C14" s="52"/>
+      <c r="D14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="O14" s="52">
         <f>O8+O12-O13</f>
         <v>-762</v>
       </c>
-      <c r="P14" s="34">
+      <c r="P14" s="31">
         <f>P8+P12-P13</f>
         <v>-5902</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="34" t="s">
+    <row r="15" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="O15" s="55">
+      <c r="C15" s="52"/>
+      <c r="D15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="O15" s="52">
         <v>0</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="35" t="s">
+    <row r="16" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="O16" s="54">
+      <c r="C16" s="51"/>
+      <c r="D16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="O16" s="51">
         <f>O14-O15</f>
         <v>-762</v>
       </c>
-      <c r="P16" s="35">
+      <c r="P16" s="32">
         <f>P14-P15</f>
         <v>-5902</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O17" s="66">
+      <c r="O17" s="63">
         <f>O16/O18</f>
         <v>-9.067596432460091E-3</v>
       </c>
-      <c r="P17" s="67">
+      <c r="P17" s="64">
         <f>P16/P18</f>
         <v>-4.481397114654518E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="65">
+      <c r="O18" s="62">
         <v>84035.5</v>
       </c>
-      <c r="P18" s="33">
+      <c r="P18" s="8">
         <v>131700</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="75"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C20" s="57"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="71"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O23" s="64" t="s">
+      <c r="O23" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="P23" s="63">
+      <c r="P23" s="60">
         <f>P6/P4</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O24" s="64" t="s">
+      <c r="O24" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="P24" s="63">
+      <c r="P24" s="60">
         <f>P8/P4</f>
         <v>-236.08</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O25" s="64" t="s">
+      <c r="O25" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="P25" s="63">
+      <c r="P25" s="60">
         <f>P16/P4</f>
         <v>-236.08</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="O26" s="64" t="s">
+      <c r="O26" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="P26" s="63">
+      <c r="P26" s="60">
         <f>P17/P16</f>
         <v>7.5930144267274111E-6</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="31" t="s">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B29" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="O29" s="55"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O29" s="52"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="55">
+      <c r="C30" s="52">
         <v>32</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="37">
         <f>P30</f>
         <v>82</v>
       </c>
-      <c r="O30" s="55">
+      <c r="O30" s="52">
         <v>11</v>
       </c>
-      <c r="P30" s="34">
+      <c r="P30" s="31">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="55">
+      <c r="C31" s="52">
         <v>2214</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="37">
         <f t="shared" ref="D31:D42" si="0">P31</f>
         <v>4280</v>
       </c>
-      <c r="O31" s="55">
+      <c r="O31" s="52">
         <v>662</v>
       </c>
-      <c r="P31" s="34">
+      <c r="P31" s="31">
         <v>4280</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="55">
+      <c r="C32" s="52">
         <v>0</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O32" s="55">
+      <c r="O32" s="52">
         <v>0</v>
       </c>
-      <c r="P32" s="34">
+      <c r="P32" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="55">
+      <c r="C33" s="52">
         <f>C30+C31+C32</f>
         <v>2246</v>
       </c>
-      <c r="D33" s="40">
+      <c r="D33" s="37">
         <f t="shared" si="0"/>
         <v>4362</v>
       </c>
-      <c r="O33" s="55">
+      <c r="O33" s="52">
         <f>O30+O31+O32</f>
         <v>673</v>
       </c>
-      <c r="P33" s="34">
+      <c r="P33" s="31">
         <f>P30+P31+P32</f>
         <v>4362</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="55">
+      <c r="C34" s="52">
         <v>319</v>
       </c>
-      <c r="D34" s="40">
+      <c r="D34" s="37">
         <f t="shared" si="0"/>
         <v>451</v>
       </c>
-      <c r="O34" s="55">
+      <c r="O34" s="52">
         <v>11</v>
       </c>
-      <c r="P34" s="34">
+      <c r="P34" s="31">
         <v>451</v>
       </c>
     </row>
-    <row r="35" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="54">
+      <c r="C35" s="51">
         <v>39691</v>
       </c>
-      <c r="D35" s="39">
+      <c r="D35" s="36">
         <f t="shared" si="0"/>
         <v>31982</v>
       </c>
-      <c r="F35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="O35" s="54">
+      <c r="F35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="O35" s="51">
         <v>3684</v>
       </c>
-      <c r="P35" s="35">
+      <c r="P35" s="32">
         <v>31982</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="55">
+      <c r="C36" s="52">
         <f>C33+SUM(C34:C35)</f>
         <v>42256</v>
       </c>
-      <c r="D36" s="40">
+      <c r="D36" s="37">
         <f t="shared" si="0"/>
         <v>36795</v>
       </c>
-      <c r="O36" s="55">
+      <c r="O36" s="52">
         <f>O33+SUM(O34:O35)</f>
         <v>4368</v>
       </c>
-      <c r="P36" s="68">
+      <c r="P36" s="31">
         <f>P33+SUM(P34:P35)</f>
         <v>36795</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="34"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="31"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="55">
+      <c r="C38" s="52">
         <v>1032</v>
       </c>
-      <c r="D38" s="40">
+      <c r="D38" s="37">
         <f t="shared" si="0"/>
         <v>1521</v>
       </c>
-      <c r="O38" s="55">
+      <c r="O38" s="52">
         <v>122</v>
       </c>
-      <c r="P38" s="34">
+      <c r="P38" s="31">
         <v>1521</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="55">
+      <c r="C39" s="52">
         <f>C38</f>
         <v>1032</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="37">
         <f t="shared" si="0"/>
         <v>1521</v>
       </c>
-      <c r="O39" s="55">
+      <c r="O39" s="52">
         <f>O38</f>
         <v>122</v>
       </c>
-      <c r="P39" s="68">
+      <c r="P39" s="31">
         <f>P38</f>
         <v>1521</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="O40" s="55"/>
-      <c r="P40" s="34"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="O40" s="52"/>
+      <c r="P40" s="31"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="55">
+      <c r="C41" s="52">
         <v>41224</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41" s="37">
         <f t="shared" si="0"/>
         <v>35274</v>
       </c>
-      <c r="O41" s="55">
+      <c r="O41" s="52">
         <v>4246</v>
       </c>
-      <c r="P41" s="34">
+      <c r="P41" s="31">
         <v>35274</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="55">
+      <c r="C42" s="52">
         <f>C41+C39</f>
         <v>42256</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D42" s="37">
         <f t="shared" si="0"/>
         <v>36795</v>
       </c>
-      <c r="O42" s="55">
+      <c r="O42" s="52">
         <f>O41+O39</f>
         <v>4368</v>
       </c>
-      <c r="P42" s="34">
+      <c r="P42" s="31">
         <f>P41+P39</f>
         <v>36795</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O44" s="55">
+      <c r="O44" s="52">
         <f>O36-O39</f>
         <v>4246</v>
       </c>
-      <c r="P44" s="34">
+      <c r="P44" s="31">
         <f>P36-P39</f>
         <v>35274</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O45" s="59">
+      <c r="O45" s="56">
         <f>O44/O18</f>
         <v>5.0526265685335366E-2</v>
       </c>
@@ -2482,95 +2507,95 @@
         <v>0.26783599088838267</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="55">
+      <c r="C47" s="52">
         <f>C35</f>
         <v>39691</v>
       </c>
-      <c r="D47" s="40">
+      <c r="D47" s="37">
         <f>D35</f>
         <v>31982</v>
       </c>
-      <c r="O47" s="55">
+      <c r="O47" s="52">
         <f>O35</f>
         <v>3684</v>
       </c>
-      <c r="P47" s="34">
+      <c r="P47" s="31">
         <f>P35</f>
         <v>31982</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="59">
+      <c r="C48" s="56">
         <v>0</v>
       </c>
-      <c r="D48" s="27">
+      <c r="D48" s="25">
         <v>0</v>
       </c>
-      <c r="O48" s="59">
+      <c r="O48" s="56">
         <v>0</v>
       </c>
       <c r="P48" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="55">
+      <c r="C49" s="52">
         <f>C47-C48</f>
         <v>39691</v>
       </c>
-      <c r="D49" s="40">
+      <c r="D49" s="37">
         <f>D47-D48</f>
         <v>31982</v>
       </c>
-      <c r="O49" s="55">
+      <c r="O49" s="52">
         <f>O47-O48</f>
         <v>3684</v>
       </c>
-      <c r="P49" s="34">
+      <c r="P49" s="31">
         <f>P47-P48</f>
         <v>31982</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="64" t="s">
+      <c r="C51" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="76" t="s">
+      <c r="D51" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="P51" s="63">
+      <c r="P51" s="60">
         <f>P49/O49-1</f>
         <v>7.6813246471226932</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="64" t="s">
+      <c r="C52" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="25">
         <f>D49/C49-1</f>
         <v>-0.19422539114660753</v>
       </c>
-      <c r="O52" s="64" t="s">
+      <c r="O52" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="P52" s="22" t="s">
+      <c r="P52" s="21" t="s">
         <v>83</v>
       </c>
     </row>

--- a/£TRLS.xlsx
+++ b/£TRLS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305A460A-22C4-5D41-AF40-6F1C08DC3967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCD35A1-01EE-4B58-B047-34AF55C67CE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18920" xr2:uid="{22FE4D90-709B-430A-8239-4013C6F51091}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18915" xr2:uid="{22FE4D90-709B-430A-8239-4013C6F51091}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,22 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
   <si>
     <t>£TRLS</t>
   </si>
@@ -338,6 +328,12 @@
   </si>
   <si>
     <t xml:space="preserve">Mahoney is an Oxford biochemistry graduate who took a Ph.D in Cambridge and has 25years of industry experience </t>
+  </si>
+  <si>
+    <t>Resilience training &amp; self-management solution for IBD made available via trial with NY based Health Insurance Company</t>
+  </si>
+  <si>
+    <t>Initial demonstration project will be offered via New York Medicaid health plan with more than 1.8m members</t>
   </si>
 </sst>
 </file>
@@ -618,7 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -754,12 +750,16 @@
     <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -769,8 +769,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -797,12 +795,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1192,18 +1191,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C1C77C-EAEA-4E8C-99BB-50215075D6D1}">
   <dimension ref="A2:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:D34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="9.1640625" style="1"/>
-    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1212,45 +1211,45 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="B5" s="77" t="s">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="G5" s="77" t="s">
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
+      <c r="G5" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="79"/>
-      <c r="T5" s="77" t="s">
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="83"/>
+      <c r="T5" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="79"/>
-      <c r="Z5" s="77" t="s">
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="83"/>
+      <c r="Z5" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="79"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="83"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1258,22 +1257,18 @@
         <v>0.09</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="G6" s="92">
-        <v>44958</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="13"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="76"/>
       <c r="T6" s="33" t="s">
         <v>61</v>
       </c>
@@ -1284,12 +1279,12 @@
       <c r="Z6" s="70">
         <v>44835</v>
       </c>
-      <c r="AA6" s="82" t="s">
+      <c r="AA6" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="AB6" s="83"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AB6" s="85"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1301,29 +1296,27 @@
         <v>FY21</v>
       </c>
       <c r="G7" s="18"/>
-      <c r="H7" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="13"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="76"/>
       <c r="T7" s="33"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="13"/>
       <c r="Z7" s="22"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="85"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="87"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1332,25 +1325,29 @@
         <v>11.852999999999998</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="13"/>
+      <c r="G8" s="77">
+        <v>44958</v>
+      </c>
+      <c r="H8" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="76"/>
       <c r="T8" s="33"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1362,29 +1359,27 @@
         <f t="shared" ref="D9:D11" si="0">C$28</f>
         <v>FY21</v>
       </c>
-      <c r="G9" s="17">
-        <v>44838</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="13"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="76"/>
       <c r="T9" s="33"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1396,26 +1391,24 @@
         <v>FY21</v>
       </c>
       <c r="G10" s="18"/>
-      <c r="H10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="13"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="76"/>
       <c r="T10" s="33"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1427,9 +1420,11 @@
         <f t="shared" si="0"/>
         <v>FY21</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19" t="s">
-        <v>16</v>
+      <c r="G11" s="77">
+        <v>44958</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -1447,7 +1442,7 @@
       <c r="W11" s="12"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1457,7 +1452,9 @@
       </c>
       <c r="D12" s="7"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="12"/>
+      <c r="H12" s="78" t="s">
+        <v>92</v>
+      </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
@@ -1474,7 +1471,7 @@
       <c r="W12" s="12"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B13" s="67" t="s">
         <v>85</v>
       </c>
@@ -1482,12 +1479,8 @@
         <v>0.88</v>
       </c>
       <c r="D13" s="66"/>
-      <c r="G13" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
@@ -1504,9 +1497,13 @@
       <c r="W13" s="12"/>
       <c r="X13" s="13"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="G14" s="18"/>
-      <c r="H14" s="12"/>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="G14" s="17">
+        <v>44838</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
@@ -1523,17 +1520,15 @@
       <c r="W14" s="15"/>
       <c r="X14" s="16"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="B15" s="77" t="s">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B15" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
-      <c r="G15" s="17">
-        <v>44344</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>59</v>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -1546,19 +1541,21 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="13"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="76"/>
+      <c r="D16" s="95"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="12"/>
+      <c r="H16" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
@@ -1570,15 +1567,15 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="13"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
       <c r="B17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="76"/>
+      <c r="D17" s="95"/>
       <c r="G17" s="18"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -1592,22 +1589,26 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="13"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="76"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="12"/>
+      <c r="G18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
@@ -1619,14 +1620,14 @@
       <c r="Q18" s="12"/>
       <c r="R18" s="13"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="91"/>
+      <c r="D19" s="93"/>
       <c r="G19" s="18"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1640,9 +1641,13 @@
       <c r="Q19" s="12"/>
       <c r="R19" s="13"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="G20" s="18"/>
-      <c r="H20" s="12"/>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G20" s="17">
+        <v>44344</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
@@ -1654,7 +1659,7 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="13"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G21" s="18"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -1668,12 +1673,12 @@
       <c r="Q21" s="12"/>
       <c r="R21" s="13"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B22" s="77" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
       <c r="G22" s="18"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -1687,14 +1692,14 @@
       <c r="Q22" s="12"/>
       <c r="R22" s="13"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="76"/>
+      <c r="D23" s="95"/>
       <c r="G23" s="18"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
@@ -1708,14 +1713,14 @@
       <c r="Q23" s="12"/>
       <c r="R23" s="13"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="75">
+      <c r="C24" s="94">
         <v>2020</v>
       </c>
-      <c r="D24" s="76"/>
+      <c r="D24" s="95"/>
       <c r="G24" s="18"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
@@ -1729,10 +1734,10 @@
       <c r="Q24" s="12"/>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B25" s="18"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="89"/>
       <c r="G25" s="18"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -1746,10 +1751,10 @@
       <c r="Q25" s="12"/>
       <c r="R25" s="13"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B26" s="18"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="89"/>
       <c r="G26" s="18"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
@@ -1763,10 +1768,10 @@
       <c r="Q26" s="12"/>
       <c r="R26" s="13"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B27" s="18"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89"/>
       <c r="G27" s="20"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
@@ -1780,7 +1785,7 @@
       <c r="Q27" s="15"/>
       <c r="R27" s="16"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B28" s="18" t="s">
         <v>30</v>
       </c>
@@ -1789,52 +1794,58 @@
       </c>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B29" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="85"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B32" s="77" t="s">
+      <c r="D29" s="87"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B32" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C32" s="82"/>
+      <c r="D32" s="83"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="88">
+      <c r="C33" s="90">
         <f>C6/'Financial Model'!P45</f>
         <v>0.33602653512502129</v>
       </c>
-      <c r="D33" s="89"/>
+      <c r="D33" s="91"/>
       <c r="G33" s="31"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="88">
+      <c r="C34" s="90">
         <f>C8/'Financial Model'!P4</f>
         <v>0.47411999999999993</v>
       </c>
-      <c r="D34" s="89"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D34" s="91"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="80"/>
-      <c r="D35" s="81"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G5:R5"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="Z5:AB5"/>
     <mergeCell ref="AA6:AB6"/>
@@ -1851,18 +1862,14 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G5:R5"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{03F0450A-3559-4A6F-9878-BC2701BC0DAB}"/>
+    <hyperlink ref="H8" r:id="rId2" xr:uid="{9CD88679-B3B3-4C65-AAC5-EC1464305CEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1877,22 +1884,22 @@
       <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="56"/>
-    <col min="4" max="4" width="9.1640625" style="25"/>
-    <col min="5" max="5" width="9.1640625" style="1"/>
-    <col min="6" max="6" width="9.1640625" style="25"/>
-    <col min="7" max="7" width="9.1640625" style="1"/>
-    <col min="8" max="8" width="9.1640625" style="25"/>
-    <col min="9" max="14" width="9.1640625" style="1"/>
-    <col min="15" max="15" width="9.1640625" style="56"/>
-    <col min="16" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="56"/>
+    <col min="4" max="4" width="9.140625" style="25"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="25"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="25"/>
+    <col min="9" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.140625" style="56"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="47" t="s">
         <v>81</v>
       </c>
@@ -1930,7 +1937,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="26"/>
       <c r="C2" s="50"/>
       <c r="D2" s="73">
@@ -1945,7 +1952,7 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="26"/>
       <c r="C3" s="59">
         <v>44461</v>
@@ -1958,7 +1965,7 @@
         <v>44692</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
         <v>48</v>
       </c>
@@ -1973,7 +1980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="31" t="s">
         <v>63</v>
       </c>
@@ -1988,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="32" t="s">
         <v>64</v>
       </c>
@@ -2005,7 +2012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="31" t="s">
         <v>65</v>
       </c>
@@ -2020,7 +2027,7 @@
         <v>5927</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
         <v>66</v>
       </c>
@@ -2037,7 +2044,7 @@
         <v>-5902</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="39" t="s">
         <v>67</v>
@@ -2053,7 +2060,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="41"/>
       <c r="B10" s="42" t="s">
         <v>68</v>
@@ -2069,7 +2076,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="44"/>
       <c r="B11" s="45" t="s">
         <v>69</v>
@@ -2087,7 +2094,7 @@
         <v>-5731</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="31" t="s">
         <v>70</v>
       </c>
@@ -2102,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="31" t="s">
         <v>71</v>
       </c>
@@ -2117,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="31" t="s">
         <v>72</v>
       </c>
@@ -2134,7 +2141,7 @@
         <v>-5902</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="31" t="s">
         <v>73</v>
       </c>
@@ -2149,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
         <v>74</v>
       </c>
@@ -2166,7 +2173,7 @@
         <v>-5902</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>75</v>
       </c>
@@ -2179,7 +2186,7 @@
         <v>-4.481397114654518E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
@@ -2190,7 +2197,7 @@
         <v>131700</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>76</v>
       </c>
@@ -2201,12 +2208,12 @@
       <c r="O20" s="57"/>
       <c r="P20" s="71"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>78</v>
       </c>
@@ -2218,7 +2225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>79</v>
       </c>
@@ -2230,7 +2237,7 @@
         <v>-236.08</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>80</v>
       </c>
@@ -2242,7 +2249,7 @@
         <v>-236.08</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>90</v>
       </c>
@@ -2254,13 +2261,13 @@
         <v>7.5930144267274111E-6</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="29" t="s">
         <v>49</v>
       </c>
       <c r="O29" s="52"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
@@ -2278,7 +2285,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>51</v>
       </c>
@@ -2296,7 +2303,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>84</v>
       </c>
@@ -2314,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>52</v>
       </c>
@@ -2335,7 +2342,7 @@
         <v>4362</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>53</v>
       </c>
@@ -2353,7 +2360,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="35" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
@@ -2373,7 +2380,7 @@
         <v>31982</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>54</v>
       </c>
@@ -2394,12 +2401,12 @@
         <v>36795</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="52"/>
       <c r="O37" s="52"/>
       <c r="P37" s="31"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>55</v>
       </c>
@@ -2417,7 +2424,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>56</v>
       </c>
@@ -2438,11 +2445,11 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="O40" s="52"/>
       <c r="P40" s="31"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>57</v>
       </c>
@@ -2460,7 +2467,7 @@
         <v>35274</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>58</v>
       </c>
@@ -2481,7 +2488,7 @@
         <v>36795</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>88</v>
       </c>
@@ -2494,7 +2501,7 @@
         <v>35274</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>89</v>
       </c>
@@ -2507,7 +2514,7 @@
         <v>0.26783599088838267</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
@@ -2528,7 +2535,7 @@
         <v>31982</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>7</v>
       </c>
@@ -2545,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>8</v>
       </c>
@@ -2566,7 +2573,7 @@
         <v>31982</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>86</v>
       </c>
@@ -2581,7 +2588,7 @@
         <v>7.6813246471226932</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>87</v>
       </c>

--- a/£TRLS.xlsx
+++ b/£TRLS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCD35A1-01EE-4B58-B047-34AF55C67CE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371263E2-E877-4E50-A850-E4EA1C7B4FD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18915" xr2:uid="{22FE4D90-709B-430A-8239-4013C6F51091}"/>
   </bookViews>
@@ -758,17 +758,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -795,13 +802,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1192,7 +1192,7 @@
   <dimension ref="A2:AB35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1217,44 +1217,44 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
-      <c r="G5" s="81" t="s">
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
+      <c r="G5" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="83"/>
-      <c r="T5" s="81" t="s">
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="84"/>
+      <c r="T5" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="83"/>
-      <c r="Z5" s="81" t="s">
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="84"/>
+      <c r="Z5" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="84"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>0.09</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D6" s="6"/>
       <c r="G6" s="18"/>
@@ -1279,10 +1279,10 @@
       <c r="Z6" s="70">
         <v>44835</v>
       </c>
-      <c r="AA6" s="84" t="s">
+      <c r="AA6" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="AB6" s="85"/>
+      <c r="AB6" s="88"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
@@ -1313,8 +1313,8 @@
       <c r="W7" s="12"/>
       <c r="X7" s="13"/>
       <c r="Z7" s="22"/>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="87"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="90"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
@@ -1322,13 +1322,13 @@
       </c>
       <c r="C8" s="8">
         <f>C6*C7</f>
-        <v>11.852999999999998</v>
+        <v>8.5604999999999993</v>
       </c>
       <c r="D8" s="6"/>
       <c r="G8" s="77">
         <v>44958</v>
       </c>
-      <c r="H8" s="96" t="s">
+      <c r="H8" s="79" t="s">
         <v>93</v>
       </c>
       <c r="I8" s="75"/>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="C12" s="9">
         <f>C8-C11</f>
-        <v>-16.291160000000001</v>
+        <v>-19.583660000000002</v>
       </c>
       <c r="D12" s="7"/>
       <c r="G12" s="18"/>
@@ -1521,11 +1521,11 @@
       <c r="X14" s="16"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
       <c r="G15" s="18"/>
       <c r="H15" s="19" t="s">
         <v>15</v>
@@ -1548,10 +1548,10 @@
       <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="95"/>
+      <c r="D16" s="81"/>
       <c r="G16" s="18"/>
       <c r="H16" s="19" t="s">
         <v>16</v>
@@ -1572,10 +1572,10 @@
       <c r="B17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="95"/>
+      <c r="D17" s="81"/>
       <c r="G17" s="18"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -1596,10 +1596,10 @@
       <c r="B18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="95"/>
+      <c r="D18" s="81"/>
       <c r="E18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1624,10 +1624,10 @@
       <c r="B19" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="93"/>
+      <c r="D19" s="96"/>
       <c r="G19" s="18"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1674,11 +1674,11 @@
       <c r="R21" s="13"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
       <c r="G22" s="18"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -1696,10 +1696,10 @@
       <c r="B23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="95"/>
+      <c r="D23" s="81"/>
       <c r="G23" s="18"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
@@ -1717,10 +1717,10 @@
       <c r="B24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="94">
+      <c r="C24" s="80">
         <v>2020</v>
       </c>
-      <c r="D24" s="95"/>
+      <c r="D24" s="81"/>
       <c r="G24" s="18"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
@@ -1736,8 +1736,8 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B25" s="18"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="89"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="92"/>
       <c r="G25" s="18"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -1753,8 +1753,8 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B26" s="18"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="89"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
       <c r="G26" s="18"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
@@ -1770,8 +1770,8 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B27" s="18"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92"/>
       <c r="G27" s="20"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
@@ -1798,54 +1798,48 @@
       <c r="B29" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="87"/>
+      <c r="D29" s="90"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="90">
+      <c r="C33" s="93">
         <f>C6/'Financial Model'!P45</f>
-        <v>0.33602653512502129</v>
-      </c>
-      <c r="D33" s="91"/>
+        <v>0.2426858309236265</v>
+      </c>
+      <c r="D33" s="94"/>
       <c r="G33" s="31"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="90">
+      <c r="C34" s="93">
         <f>C8/'Financial Model'!P4</f>
-        <v>0.47411999999999993</v>
-      </c>
-      <c r="D34" s="91"/>
+        <v>0.34241999999999995</v>
+      </c>
+      <c r="D34" s="94"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G5:R5"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="Z5:AB5"/>
     <mergeCell ref="AA6:AB6"/>
@@ -1862,6 +1856,12 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G5:R5"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{03F0450A-3559-4A6F-9878-BC2701BC0DAB}"/>

--- a/£TRLS.xlsx
+++ b/£TRLS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371263E2-E877-4E50-A850-E4EA1C7B4FD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EDE517-5C42-47AE-925A-F3D3445B4820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18915" xr2:uid="{22FE4D90-709B-430A-8239-4013C6F51091}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22FE4D90-709B-430A-8239-4013C6F51091}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -156,9 +165,6 @@
     <t>P/S</t>
   </si>
   <si>
-    <t>P/E</t>
-  </si>
-  <si>
     <t>Investor Presentations</t>
   </si>
   <si>
@@ -334,6 +340,9 @@
   </si>
   <si>
     <t>Initial demonstration project will be offered via New York Medicaid health plan with more than 1.8m members</t>
+  </si>
+  <si>
+    <t>CPS</t>
   </si>
 </sst>
 </file>
@@ -614,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -750,8 +759,6 @@
     <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,12 +766,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -774,8 +775,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -800,6 +799,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1192,7 +1203,7 @@
   <dimension ref="A2:AB35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1207,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2"/>
     </row>
@@ -1217,37 +1228,37 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
-      <c r="G5" s="82" t="s">
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="G5" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
-      <c r="T5" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="84"/>
-      <c r="Z5" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="84"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="80"/>
+      <c r="T5" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="80"/>
+      <c r="Z5" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="80"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -1258,19 +1269,19 @@
       </c>
       <c r="D6" s="6"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="76"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="13"/>
       <c r="T6" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
@@ -1279,10 +1290,10 @@
       <c r="Z6" s="70">
         <v>44835</v>
       </c>
-      <c r="AA6" s="87" t="s">
+      <c r="AA6" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="AB6" s="88"/>
+      <c r="AB6" s="82"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
@@ -1296,25 +1307,25 @@
         <v>FY21</v>
       </c>
       <c r="G7" s="18"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="76"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="13"/>
       <c r="T7" s="33"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="13"/>
       <c r="Z7" s="22"/>
-      <c r="AA7" s="89"/>
-      <c r="AB7" s="90"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="84"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
@@ -1325,22 +1336,22 @@
         <v>8.5604999999999993</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="G8" s="77">
+      <c r="G8" s="75">
         <v>44958</v>
       </c>
-      <c r="H8" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="76"/>
+      <c r="H8" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="13"/>
       <c r="T8" s="33"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
@@ -1360,19 +1371,19 @@
         <v>FY21</v>
       </c>
       <c r="G9" s="18"/>
-      <c r="H9" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="76"/>
+      <c r="H9" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="13"/>
       <c r="T9" s="33"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
@@ -1391,17 +1402,17 @@
         <v>FY21</v>
       </c>
       <c r="G10" s="18"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="76"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="13"/>
       <c r="T10" s="33"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
@@ -1420,11 +1431,11 @@
         <f t="shared" si="0"/>
         <v>FY21</v>
       </c>
-      <c r="G11" s="77">
+      <c r="G11" s="75">
         <v>44958</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -1452,8 +1463,8 @@
       </c>
       <c r="D12" s="7"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="78" t="s">
-        <v>92</v>
+      <c r="H12" s="76" t="s">
+        <v>91</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -1473,7 +1484,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B13" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="65">
         <v>0.88</v>
@@ -1521,11 +1532,11 @@
       <c r="X14" s="16"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="80"/>
       <c r="G15" s="18"/>
       <c r="H15" s="19" t="s">
         <v>15</v>
@@ -1548,10 +1559,10 @@
       <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="81"/>
+      <c r="D16" s="92"/>
       <c r="G16" s="18"/>
       <c r="H16" s="19" t="s">
         <v>16</v>
@@ -1572,10 +1583,10 @@
       <c r="B17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="81"/>
+      <c r="D17" s="92"/>
       <c r="G17" s="18"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -1596,18 +1607,18 @@
       <c r="B18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="81"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -1624,10 +1635,10 @@
       <c r="B19" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="96"/>
+      <c r="D19" s="90"/>
       <c r="G19" s="18"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1646,7 +1657,7 @@
         <v>44344</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -1674,11 +1685,11 @@
       <c r="R21" s="13"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
       <c r="G22" s="18"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -1696,10 +1707,10 @@
       <c r="B23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="81"/>
+      <c r="D23" s="92"/>
       <c r="G23" s="18"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
@@ -1717,10 +1728,10 @@
       <c r="B24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="80">
+      <c r="C24" s="91">
         <v>2020</v>
       </c>
-      <c r="D24" s="81"/>
+      <c r="D24" s="92"/>
       <c r="G24" s="18"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
@@ -1736,8 +1747,8 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B25" s="18"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="92"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="86"/>
       <c r="G25" s="18"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -1753,8 +1764,8 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B26" s="18"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="92"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="86"/>
       <c r="G26" s="18"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
@@ -1770,8 +1781,8 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B27" s="18"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="86"/>
       <c r="G27" s="20"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
@@ -1790,7 +1801,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="13"/>
     </row>
@@ -1798,48 +1809,57 @@
       <c r="B29" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="89" t="s">
+      <c r="C29" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="90"/>
+      <c r="D29" s="84"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="82" t="s">
+      <c r="B32" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="83"/>
-      <c r="D32" s="84"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="80"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="93">
+      <c r="C33" s="87">
         <f>C6/'Financial Model'!P45</f>
         <v>0.2426858309236265</v>
       </c>
-      <c r="D33" s="94"/>
+      <c r="D33" s="88"/>
       <c r="G33" s="31"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="93">
+      <c r="C34" s="87">
         <f>C8/'Financial Model'!P4</f>
         <v>0.34241999999999995</v>
       </c>
-      <c r="D34" s="94"/>
+      <c r="D34" s="88"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
+        <v>94</v>
+      </c>
+      <c r="C35" s="93">
+        <f>C11/C7</f>
+        <v>0.21369901290812454</v>
+      </c>
+      <c r="D35" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G5:R5"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="Z5:AB5"/>
     <mergeCell ref="AA6:AB6"/>
@@ -1856,12 +1876,6 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G5:R5"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{03F0450A-3559-4A6F-9878-BC2701BC0DAB}"/>
@@ -1901,40 +1915,40 @@
   <sheetData>
     <row r="1" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="24" t="s">
+      <c r="P1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" s="23" t="s">
+      <c r="Q1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -1967,7 +1981,7 @@
     </row>
     <row r="4" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="36"/>
@@ -1982,7 +1996,7 @@
     </row>
     <row r="5" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="52"/>
       <c r="D5" s="37"/>
@@ -1997,7 +2011,7 @@
     </row>
     <row r="6" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="51"/>
       <c r="D6" s="36"/>
@@ -2014,7 +2028,7 @@
     </row>
     <row r="7" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="37"/>
@@ -2029,7 +2043,7 @@
     </row>
     <row r="8" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="36"/>
@@ -2047,7 +2061,7 @@
     <row r="9" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="40"/>
@@ -2063,7 +2077,7 @@
     <row r="10" spans="1:19" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="41"/>
       <c r="B10" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="43"/>
@@ -2079,7 +2093,7 @@
     <row r="11" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="44"/>
       <c r="B11" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="55"/>
       <c r="D11" s="46"/>
@@ -2096,7 +2110,7 @@
     </row>
     <row r="12" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="52"/>
       <c r="D12" s="37"/>
@@ -2111,7 +2125,7 @@
     </row>
     <row r="13" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="52"/>
       <c r="D13" s="37"/>
@@ -2126,7 +2140,7 @@
     </row>
     <row r="14" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="37"/>
@@ -2143,7 +2157,7 @@
     </row>
     <row r="15" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="52"/>
       <c r="D15" s="37"/>
@@ -2158,7 +2172,7 @@
     </row>
     <row r="16" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="51"/>
       <c r="D16" s="36"/>
@@ -2175,7 +2189,7 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O17" s="63">
         <f>O16/O18</f>
@@ -2199,7 +2213,7 @@
     </row>
     <row r="20" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="57"/>
       <c r="D20" s="30"/>
@@ -2210,15 +2224,15 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O23" s="61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P23" s="60">
         <f>P6/P4</f>
@@ -2227,10 +2241,10 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P24" s="60">
         <f>P8/P4</f>
@@ -2239,10 +2253,10 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P25" s="60">
         <f>P16/P4</f>
@@ -2251,10 +2265,10 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O26" s="61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P26" s="60">
         <f>P17/P16</f>
@@ -2263,13 +2277,13 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O29" s="52"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="52">
         <v>32</v>
@@ -2287,7 +2301,7 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="52">
         <v>2214</v>
@@ -2305,7 +2319,7 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="52">
         <v>0</v>
@@ -2323,7 +2337,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="52">
         <f>C30+C31+C32</f>
@@ -2344,7 +2358,7 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="52">
         <v>319</v>
@@ -2382,7 +2396,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="52">
         <f>C33+SUM(C34:C35)</f>
@@ -2408,7 +2422,7 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" s="52">
         <v>1032</v>
@@ -2426,7 +2440,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" s="52">
         <f>C38</f>
@@ -2451,7 +2465,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="52">
         <v>41224</v>
@@ -2469,7 +2483,7 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="52">
         <f>C41+C39</f>
@@ -2490,7 +2504,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O44" s="52">
         <f>O36-O39</f>
@@ -2503,7 +2517,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O45" s="56">
         <f>O44/O18</f>
@@ -2575,13 +2589,13 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" s="61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D51" s="72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P51" s="60">
         <f>P49/O49-1</f>
@@ -2590,20 +2604,20 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C52" s="61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D52" s="25">
         <f>D49/C49-1</f>
         <v>-0.19422539114660753</v>
       </c>
       <c r="O52" s="61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P52" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/£TRLS.xlsx
+++ b/£TRLS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EDE517-5C42-47AE-925A-F3D3445B4820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F8C6696-741A-4540-9565-4FC4ED26EA82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22FE4D90-709B-430A-8239-4013C6F51091}"/>
   </bookViews>
@@ -17,25 +17,17 @@
     <sheet name="Financial Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
   <si>
     <t>£TRLS</t>
   </si>
@@ -343,6 +335,12 @@
   </si>
   <si>
     <t>CPS</t>
+  </si>
+  <si>
+    <t>TRLS announce surprise deal with J&amp;J to pilot Tellus Elevate platform with IBD patients using J&amp;J drug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock surges almost 700% in one day. Deal includes upfront licensing fee &amp; monthly management fee </t>
   </si>
 </sst>
 </file>
@@ -623,7 +621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -766,6 +764,14 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -805,12 +811,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1202,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C1C77C-EAEA-4E8C-99BB-50215075D6D1}">
   <dimension ref="A2:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1228,44 +1228,44 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="G5" s="78" t="s">
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
+      <c r="G5" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="80"/>
-      <c r="T5" s="78" t="s">
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="84"/>
+      <c r="T5" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="80"/>
-      <c r="Z5" s="78" t="s">
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="84"/>
+      <c r="Z5" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="AA5" s="79"/>
-      <c r="AB5" s="80"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="84"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>6.5000000000000002E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D6" s="6"/>
       <c r="G6" s="18"/>
@@ -1290,10 +1290,10 @@
       <c r="Z6" s="70">
         <v>44835</v>
       </c>
-      <c r="AA6" s="81" t="s">
+      <c r="AA6" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="AB6" s="82"/>
+      <c r="AB6" s="86"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
@@ -1306,8 +1306,12 @@
         <f>C$28</f>
         <v>FY21</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="12"/>
+      <c r="G7" s="75">
+        <v>45658</v>
+      </c>
+      <c r="H7" s="77" t="s">
+        <v>95</v>
+      </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
@@ -1324,8 +1328,8 @@
       <c r="W7" s="12"/>
       <c r="X7" s="13"/>
       <c r="Z7" s="22"/>
-      <c r="AA7" s="83"/>
-      <c r="AB7" s="84"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="88"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
@@ -1333,25 +1337,23 @@
       </c>
       <c r="C8" s="8">
         <f>C6*C7</f>
-        <v>8.5604999999999993</v>
+        <v>3.9509999999999996</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="G8" s="75">
-        <v>44958</v>
-      </c>
-      <c r="H8" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="13"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="79"/>
       <c r="T8" s="33"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
@@ -1367,23 +1369,21 @@
         <v>28.144159999999999</v>
       </c>
       <c r="D9" s="69" t="str">
-        <f t="shared" ref="D9:D11" si="0">C$28</f>
+        <f>C$28</f>
         <v>FY21</v>
       </c>
       <c r="G9" s="18"/>
-      <c r="H9" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="13"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="79"/>
       <c r="T9" s="33"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
@@ -1398,21 +1398,21 @@
         <v>0</v>
       </c>
       <c r="D10" s="69" t="str">
-        <f t="shared" si="0"/>
+        <f>C$28</f>
         <v>FY21</v>
       </c>
       <c r="G10" s="18"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="13"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="79"/>
       <c r="T10" s="33"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
@@ -1428,25 +1428,21 @@
         <v>28.144159999999999</v>
       </c>
       <c r="D11" s="69" t="str">
-        <f t="shared" si="0"/>
+        <f>C$28</f>
         <v>FY21</v>
       </c>
-      <c r="G11" s="75">
-        <v>44958</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="13"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="79"/>
       <c r="T11" s="33"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
@@ -1459,23 +1455,21 @@
       </c>
       <c r="C12" s="9">
         <f>C8-C11</f>
-        <v>-19.583660000000002</v>
+        <v>-24.193159999999999</v>
       </c>
       <c r="D12" s="7"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="13"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="79"/>
       <c r="T12" s="33"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
@@ -1491,17 +1485,17 @@
       </c>
       <c r="D13" s="66"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="13"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="79"/>
       <c r="T13" s="33"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
@@ -1509,11 +1503,11 @@
       <c r="X13" s="13"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="G14" s="17">
-        <v>44838</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>14</v>
+      <c r="G14" s="75">
+        <v>44958</v>
+      </c>
+      <c r="H14" s="77" t="s">
+        <v>92</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -1532,14 +1526,14 @@
       <c r="X14" s="16"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="80"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
       <c r="G15" s="18"/>
-      <c r="H15" s="19" t="s">
-        <v>15</v>
+      <c r="H15" s="76" t="s">
+        <v>93</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -1559,14 +1553,12 @@
       <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="92"/>
+      <c r="D16" s="96"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="19" t="s">
-        <v>16</v>
-      </c>
+      <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
@@ -1583,12 +1575,16 @@
       <c r="B17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="92"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="12"/>
+      <c r="D17" s="96"/>
+      <c r="G17" s="75">
+        <v>44958</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
@@ -1607,18 +1603,16 @@
       <c r="B18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="91" t="s">
+      <c r="C18" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="92"/>
+      <c r="D18" s="96"/>
       <c r="E18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>61</v>
+      <c r="G18" s="18"/>
+      <c r="H18" s="76" t="s">
+        <v>91</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -1635,10 +1629,10 @@
       <c r="B19" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="90"/>
+      <c r="D19" s="94"/>
       <c r="G19" s="18"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1654,10 +1648,10 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G20" s="17">
-        <v>44344</v>
+        <v>44838</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -1672,7 +1666,9 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G21" s="18"/>
-      <c r="H21" s="12"/>
+      <c r="H21" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
@@ -1685,13 +1681,15 @@
       <c r="R21" s="13"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="12"/>
+      <c r="H22" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
@@ -1707,10 +1705,10 @@
       <c r="B23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="92"/>
+      <c r="D23" s="96"/>
       <c r="G23" s="18"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
@@ -1728,12 +1726,16 @@
       <c r="B24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="91">
+      <c r="C24" s="95">
         <v>2020</v>
       </c>
-      <c r="D24" s="92"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="12"/>
+      <c r="D24" s="96"/>
+      <c r="G24" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
@@ -1747,8 +1749,8 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B25" s="18"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="90"/>
       <c r="G25" s="18"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -1764,10 +1766,14 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B26" s="18"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="86"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="12"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
+      <c r="G26" s="17">
+        <v>44344</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
@@ -1781,8 +1787,8 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B27" s="18"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
       <c r="G27" s="20"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
@@ -1809,48 +1815,48 @@
       <c r="B29" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="84"/>
+      <c r="D29" s="88"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="80"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="87">
+      <c r="C33" s="91">
         <f>C6/'Financial Model'!P45</f>
-        <v>0.2426858309236265</v>
-      </c>
-      <c r="D33" s="88"/>
+        <v>0.11200884504167376</v>
+      </c>
+      <c r="D33" s="92"/>
       <c r="G33" s="31"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="87">
+      <c r="C34" s="91">
         <f>C8/'Financial Model'!P4</f>
-        <v>0.34241999999999995</v>
-      </c>
-      <c r="D34" s="88"/>
+        <v>0.15803999999999999</v>
+      </c>
+      <c r="D34" s="92"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="93">
+      <c r="C35" s="80">
         <f>C11/C7</f>
         <v>0.21369901290812454</v>
       </c>
-      <c r="D35" s="94"/>
+      <c r="D35" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -1879,11 +1885,12 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{03F0450A-3559-4A6F-9878-BC2701BC0DAB}"/>
-    <hyperlink ref="H8" r:id="rId2" xr:uid="{9CD88679-B3B3-4C65-AAC5-EC1464305CEE}"/>
+    <hyperlink ref="H14" r:id="rId2" xr:uid="{9CD88679-B3B3-4C65-AAC5-EC1464305CEE}"/>
+    <hyperlink ref="H7" r:id="rId3" display="TRLS announce surprise deal with J&amp;J" xr:uid="{22AA2710-3AAC-4ABD-86D8-CCB6B0024F20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
